--- a/all-tickets.xlsx
+++ b/all-tickets.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4958" uniqueCount="1154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5310" uniqueCount="1245">
   <si>
     <t>Reference</t>
   </si>
@@ -3473,6 +3473,279 @@
   </si>
   <si>
     <t>JHYHJMOH5C</t>
+  </si>
+  <si>
+    <t>SR-061535</t>
+  </si>
+  <si>
+    <t>OEUCN92NT5</t>
+  </si>
+  <si>
+    <t>SYG2XZ79UO</t>
+  </si>
+  <si>
+    <t>SR-061536</t>
+  </si>
+  <si>
+    <t>Aslam Shaik</t>
+  </si>
+  <si>
+    <t>(248) 854-1212</t>
+  </si>
+  <si>
+    <t>aslam.204@gmail.com</t>
+  </si>
+  <si>
+    <t>35291 Drakeshire Ln, Farmington 48335, USA</t>
+  </si>
+  <si>
+    <t>TSBFALF6JS</t>
+  </si>
+  <si>
+    <t>VIJPRHUY36</t>
+  </si>
+  <si>
+    <t>6G334DHFC8</t>
+  </si>
+  <si>
+    <t>SR-061537</t>
+  </si>
+  <si>
+    <t>Ubed Mohammad</t>
+  </si>
+  <si>
+    <t>(773) 807-0349</t>
+  </si>
+  <si>
+    <t>ubedurrahman.mohd@gmail.com</t>
+  </si>
+  <si>
+    <t>Z9NNW9DW6C</t>
+  </si>
+  <si>
+    <t>SR-061538</t>
+  </si>
+  <si>
+    <t>Zaker Moinuddin  Mohammed</t>
+  </si>
+  <si>
+    <t>(425) 241-6843</t>
+  </si>
+  <si>
+    <t>zaker.abap@gmail.com</t>
+  </si>
+  <si>
+    <t>22070 Cape Cod Way, Farmington Hills 48336, USA</t>
+  </si>
+  <si>
+    <t>WSQCX1NH78</t>
+  </si>
+  <si>
+    <t>SR-061539</t>
+  </si>
+  <si>
+    <t>Zain Abidin</t>
+  </si>
+  <si>
+    <t>(313) 699-5366</t>
+  </si>
+  <si>
+    <t>abidin100@gmail.com</t>
+  </si>
+  <si>
+    <t>EYXKNXUOV7</t>
+  </si>
+  <si>
+    <t>ZZISITKOLB</t>
+  </si>
+  <si>
+    <t>SR-061540</t>
+  </si>
+  <si>
+    <t>Imran Desai</t>
+  </si>
+  <si>
+    <t>(989) 501-5393</t>
+  </si>
+  <si>
+    <t>Imran.desai12@gmail.com</t>
+  </si>
+  <si>
+    <t>BOMMQRMGUF</t>
+  </si>
+  <si>
+    <t>SR-061541</t>
+  </si>
+  <si>
+    <t>Faryad Hussain</t>
+  </si>
+  <si>
+    <t>(678) 279-6779</t>
+  </si>
+  <si>
+    <t>faryadskg@gmail.com</t>
+  </si>
+  <si>
+    <t>32339 w 12 mile rd apt 4, Farmington Hills, Michigan 48334, USA</t>
+  </si>
+  <si>
+    <t>EX9PSG3Z8J</t>
+  </si>
+  <si>
+    <t>J3WOTVMBRW</t>
+  </si>
+  <si>
+    <t>PIJOKXM7O4</t>
+  </si>
+  <si>
+    <t>SR-061542</t>
+  </si>
+  <si>
+    <t>Nawaz Mohammad</t>
+  </si>
+  <si>
+    <t>(312) 857-4061</t>
+  </si>
+  <si>
+    <t>nawazali49@gmail.com</t>
+  </si>
+  <si>
+    <t>VX7CE1AZN8</t>
+  </si>
+  <si>
+    <t>OS4K2FNU24</t>
+  </si>
+  <si>
+    <t>3IXQRU3ZKP</t>
+  </si>
+  <si>
+    <t>VDGWIB3HSH</t>
+  </si>
+  <si>
+    <t>SR-061543</t>
+  </si>
+  <si>
+    <t>Hafsa Syed</t>
+  </si>
+  <si>
+    <t>(248) 517-1145</t>
+  </si>
+  <si>
+    <t>hafsasyed798@gmail.com</t>
+  </si>
+  <si>
+    <t>27207 Gateway Dr W Apt 306, Farmington Hills 48334, USA</t>
+  </si>
+  <si>
+    <t>R8Z6B2LFR4</t>
+  </si>
+  <si>
+    <t>SR-061544</t>
+  </si>
+  <si>
+    <t>Youness Ktiri</t>
+  </si>
+  <si>
+    <t>(217) 721-2243</t>
+  </si>
+  <si>
+    <t>yktiri@gmail.com</t>
+  </si>
+  <si>
+    <t>9CNA64YNPH</t>
+  </si>
+  <si>
+    <t>SR-061545</t>
+  </si>
+  <si>
+    <t>Safwan Kaleem</t>
+  </si>
+  <si>
+    <t>(248) 862-0958</t>
+  </si>
+  <si>
+    <t>safwankaleem97@gmail.com</t>
+  </si>
+  <si>
+    <t>EFB2N4S9RI</t>
+  </si>
+  <si>
+    <t>SR-061546</t>
+  </si>
+  <si>
+    <t>Yaser Obaisi</t>
+  </si>
+  <si>
+    <t>(847) 436-7385</t>
+  </si>
+  <si>
+    <t>‏mikeobaisi@yahoo.com</t>
+  </si>
+  <si>
+    <t>28807 w king William dr, Farmington Hills, Michigan 48331, USA</t>
+  </si>
+  <si>
+    <t>8DLRJON4SG</t>
+  </si>
+  <si>
+    <t>Malik Mohammed Shaik Abdul Jabbar</t>
+  </si>
+  <si>
+    <t>(872) 806-6535</t>
+  </si>
+  <si>
+    <t>mmsajabbar@gmail.com</t>
+  </si>
+  <si>
+    <t>6322 North Mozart street Apt 3 Apt3, Chicago 60659, USA</t>
+  </si>
+  <si>
+    <t>EKNLSMLW88</t>
+  </si>
+  <si>
+    <t>SR-061547</t>
+  </si>
+  <si>
+    <t>Ilyas Shaik</t>
+  </si>
+  <si>
+    <t>(469) 664-8156</t>
+  </si>
+  <si>
+    <t>cloudintown@gmail.com</t>
+  </si>
+  <si>
+    <t>NPNJ31Y6C9</t>
+  </si>
+  <si>
+    <t>QAHEC85ORG</t>
+  </si>
+  <si>
+    <t>4MIFLXG3Z1</t>
+  </si>
+  <si>
+    <t>SR-061548</t>
+  </si>
+  <si>
+    <t>Muhammad Usman Afzal</t>
+  </si>
+  <si>
+    <t>(224) 277-8001</t>
+  </si>
+  <si>
+    <t>musmanafzal77@gmail.com</t>
+  </si>
+  <si>
+    <t>OXZI2SGS53</t>
+  </si>
+  <si>
+    <t>EYHRPL42DI</t>
+  </si>
+  <si>
+    <t>PEKSHWQ597</t>
+  </si>
+  <si>
+    <t>TY3ZFL6L5X</t>
   </si>
 </sst>
 </file>
@@ -3520,7 +3793,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -3528,6 +3801,9 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="164" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -21490,35 +21766,1252 @@
         <v>33</v>
       </c>
     </row>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="A479" s="2" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B479" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C479" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="D479" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E479" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F479" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G479" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H479" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I479" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J479" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="K479" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L479" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M479" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N479" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O479" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P479" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q479" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="T479" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="C480" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D480" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E480" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J480" s="2" t="s">
+        <v>1156</v>
+      </c>
+      <c r="K480" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L480" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M480" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N480" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T480" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="A481" s="2" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B481" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="C481" s="2" t="s">
+        <v>1159</v>
+      </c>
+      <c r="D481" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="E481" s="2" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F481" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G481" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H481" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I481" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J481" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="K481" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L481" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M481" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N481" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O481" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P481" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q481" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T481" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="C482" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D482" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E482" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J482" s="2" t="s">
+        <v>1163</v>
+      </c>
+      <c r="K482" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L482" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M482" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N482" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T482" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="C483" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D483" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E483" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J483" s="2" t="s">
+        <v>1164</v>
+      </c>
+      <c r="K483" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L483" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M483" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N483" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T483" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="A484" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B484" s="2" t="s">
+        <v>1166</v>
+      </c>
+      <c r="C484" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="D484" s="2" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E484" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F484" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G484" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H484" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I484" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J484" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="K484" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L484" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M484" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N484" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O484" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P484" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q484" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T484" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="A485" s="2" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B485" s="2" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C485" s="2" t="s">
+        <v>1172</v>
+      </c>
+      <c r="D485" s="2" t="s">
+        <v>1173</v>
+      </c>
+      <c r="E485" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F485" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G485" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H485" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I485" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J485" s="2" t="s">
+        <v>1175</v>
+      </c>
+      <c r="K485" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L485" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M485" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N485" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O485" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P485" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q485" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T485" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="A486" s="2" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B486" s="2" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C486" s="2" t="s">
+        <v>1178</v>
+      </c>
+      <c r="D486" s="2" t="s">
+        <v>1179</v>
+      </c>
+      <c r="E486" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F486" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G486" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H486" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I486" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J486" s="2" t="s">
+        <v>1180</v>
+      </c>
+      <c r="K486" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L486" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M486" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N486" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O486" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P486" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q486" s="3">
+        <v>60.0</v>
+      </c>
+      <c r="T486" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="C487" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D487" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E487" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J487" s="2" t="s">
+        <v>1181</v>
+      </c>
+      <c r="K487" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L487" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M487" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N487" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T487" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="A488" s="2" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B488" s="2" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C488" s="2" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D488" s="2" t="s">
+        <v>1185</v>
+      </c>
+      <c r="E488" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F488" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G488" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H488" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I488" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J488" s="2" t="s">
+        <v>1186</v>
+      </c>
+      <c r="K488" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L488" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M488" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N488" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O488" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P488" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q488" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T488" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="A489" s="2" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B489" s="2" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C489" s="2" t="s">
+        <v>1189</v>
+      </c>
+      <c r="D489" s="2" t="s">
+        <v>1190</v>
+      </c>
+      <c r="E489" s="2" t="s">
+        <v>1191</v>
+      </c>
+      <c r="F489" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G489" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H489" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I489" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J489" s="2" t="s">
+        <v>1192</v>
+      </c>
+      <c r="K489" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L489" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M489" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N489" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O489" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P489" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q489" s="3">
+        <v>90.0</v>
+      </c>
+      <c r="T489" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="C490" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D490" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E490" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J490" s="2" t="s">
+        <v>1193</v>
+      </c>
+      <c r="K490" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L490" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M490" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N490" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T490" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="C491" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D491" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E491" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J491" s="2" t="s">
+        <v>1194</v>
+      </c>
+      <c r="K491" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L491" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M491" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N491" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T491" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="A492" s="2" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B492" s="2" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C492" s="2" t="s">
+        <v>1197</v>
+      </c>
+      <c r="D492" s="2" t="s">
+        <v>1198</v>
+      </c>
+      <c r="E492" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F492" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G492" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H492" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I492" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J492" s="2" t="s">
+        <v>1199</v>
+      </c>
+      <c r="K492" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L492" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M492" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N492" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O492" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P492" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q492" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="T492" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="C493" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D493" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E493" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J493" s="2" t="s">
+        <v>1200</v>
+      </c>
+      <c r="K493" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L493" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M493" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N493" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T493" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="C494" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D494" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E494" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J494" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="K494" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L494" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M494" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N494" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T494" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="C495" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D495" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E495" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J495" s="2" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K495" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L495" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M495" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N495" s="3">
+        <v>0.0</v>
+      </c>
+      <c r="T495" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="A496" s="2" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B496" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="C496" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D496" s="2" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E496" s="2" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F496" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G496" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H496" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I496" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J496" s="2" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K496" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L496" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M496" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N496" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O496" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P496" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q496" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T496" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="A497" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B497" s="2" t="s">
+        <v>1210</v>
+      </c>
+      <c r="C497" s="2" t="s">
+        <v>1211</v>
+      </c>
+      <c r="D497" s="2" t="s">
+        <v>1212</v>
+      </c>
+      <c r="E497" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F497" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G497" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H497" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I497" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J497" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="K497" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L497" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M497" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N497" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O497" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P497" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q497" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T497" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="A498" s="2" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B498" s="2" t="s">
+        <v>1215</v>
+      </c>
+      <c r="C498" s="2" t="s">
+        <v>1216</v>
+      </c>
+      <c r="D498" s="2" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E498" s="2" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F498" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G498" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H498" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I498" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J498" s="2" t="s">
+        <v>1218</v>
+      </c>
+      <c r="K498" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L498" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M498" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N498" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O498" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P498" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q498" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T498" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="A499" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B499" s="2" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C499" s="2" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D499" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="E499" s="2" t="s">
+        <v>1223</v>
+      </c>
+      <c r="F499" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G499" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H499" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I499" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J499" s="2" t="s">
+        <v>1224</v>
+      </c>
+      <c r="K499" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L499" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M499" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N499" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O499" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P499" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q499" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T499" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="A500" s="2" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B500" s="2" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C500" s="2" t="s">
+        <v>1226</v>
+      </c>
+      <c r="D500" s="2" t="s">
+        <v>1227</v>
+      </c>
+      <c r="E500" s="2" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F500" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G500" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H500" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I500" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J500" s="2" t="s">
+        <v>1229</v>
+      </c>
+      <c r="K500" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L500" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M500" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N500" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O500" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P500" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q500" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T500" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="A501" s="2" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B501" s="2" t="s">
+        <v>1231</v>
+      </c>
+      <c r="C501" s="2" t="s">
+        <v>1232</v>
+      </c>
+      <c r="D501" s="2" t="s">
+        <v>1233</v>
+      </c>
+      <c r="E501" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F501" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G501" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H501" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I501" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J501" s="2" t="s">
+        <v>1234</v>
+      </c>
+      <c r="K501" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L501" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M501" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N501" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O501" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P501" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q501" s="3">
+        <v>70.0</v>
+      </c>
+      <c r="T501" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="C502" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D502" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E502" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J502" s="2" t="s">
+        <v>1235</v>
+      </c>
+      <c r="K502" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L502" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M502" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N502" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T502" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="C503" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D503" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E503" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J503" s="2" t="s">
+        <v>1236</v>
+      </c>
+      <c r="K503" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L503" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M503" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N503" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T503" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="A504" s="2" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B504" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="C504" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D504" s="2" t="s">
+        <v>1240</v>
+      </c>
+      <c r="E504" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F504" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G504" s="2" t="s">
+        <v>879</v>
+      </c>
+      <c r="H504" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I504" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J504" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="K504" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L504" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M504" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N504" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="O504" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="P504" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q504" s="3">
+        <v>80.0</v>
+      </c>
+      <c r="T504" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="C505" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D505" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E505" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J505" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="K505" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L505" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M505" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N505" s="3">
+        <v>30.0</v>
+      </c>
+      <c r="T505" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="C506" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D506" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E506" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J506" s="2" t="s">
+        <v>1243</v>
+      </c>
+      <c r="K506" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L506" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M506" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N506" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T506" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="C507" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D507" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E507" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J507" s="2" t="s">
+        <v>1244</v>
+      </c>
+      <c r="K507" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L507" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M507" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N507" s="3">
+        <v>10.0</v>
+      </c>
+      <c r="T507" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="508" ht="15.75" customHeight="1"/>
     <row r="509" ht="15.75" customHeight="1"/>
     <row r="510" ht="15.75" customHeight="1"/>
